--- a/ppt/지영 _감귤 생산량/2018년 감귤류3종출하.xlsx
+++ b/ppt/지영 _감귤 생산량/2018년 감귤류3종출하.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60F31182-597C-418F-B5AA-0C3DEB1693A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41FA32-2CD5-4623-8061-6DB2A4AF091D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="11520" xr2:uid="{5A4937FA-6FDB-4BFC-9B89-328998EE54CB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>2015년 월동온주 ’14년산에 비해 42%, ’13년산에 비해 37% 감소하였음</t>
     <phoneticPr fontId="11" type="noConversion"/>
@@ -69,13 +69,21 @@
   <si>
     <t>연도</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조수입  억원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> kg당단가 원</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,6 +190,14 @@
       <name val="Dotum"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -265,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +326,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -628,15 +653,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D3EFE5-F38D-4288-AD0B-15954F8C2659}">
-  <dimension ref="A4:K10"/>
+  <dimension ref="A4:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="1:11" ht="57">
+    <row r="4" spans="1:17" ht="57">
       <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
@@ -650,25 +675,43 @@
         <v>7</v>
       </c>
       <c r="E4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="H4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="K4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="N4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="O4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.25">
+    <row r="5" spans="1:17" ht="26.25">
       <c r="A5" s="1">
         <v>2013</v>
       </c>
@@ -682,25 +725,43 @@
         <v>554</v>
       </c>
       <c r="E5" s="1">
+        <v>5264</v>
+      </c>
+      <c r="F5" s="1">
+        <v>950</v>
+      </c>
+      <c r="G5" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H5" s="1">
+        <v>3982</v>
+      </c>
+      <c r="I5" s="1">
+        <v>779</v>
+      </c>
+      <c r="J5" s="1">
         <v>35</v>
       </c>
-      <c r="G5" s="1">
+      <c r="K5" s="1">
+        <v>2059</v>
+      </c>
+      <c r="L5" s="1">
+        <v>715</v>
+      </c>
+      <c r="M5" s="1">
         <v>45</v>
       </c>
-      <c r="H5" s="1">
+      <c r="N5" s="1">
         <v>7.7</v>
       </c>
-      <c r="I5" s="1">
+      <c r="O5" s="1">
         <v>2.4</v>
       </c>
-      <c r="K5" t="s">
+      <c r="Q5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.25">
+    <row r="6" spans="1:17" ht="26.25">
       <c r="A6" s="1">
         <v>2014</v>
       </c>
@@ -714,22 +775,40 @@
         <v>573</v>
       </c>
       <c r="E6" s="9">
+        <v>3435</v>
+      </c>
+      <c r="F6" s="16">
+        <v>599</v>
+      </c>
+      <c r="G6" s="9">
         <v>21.6</v>
       </c>
-      <c r="F6" s="9">
+      <c r="H6" s="9">
+        <v>2814</v>
+      </c>
+      <c r="I6" s="16">
+        <v>607</v>
+      </c>
+      <c r="J6" s="9">
         <v>36</v>
       </c>
-      <c r="G6" s="9">
+      <c r="K6" s="9">
+        <v>1485</v>
+      </c>
+      <c r="L6" s="16">
+        <v>534</v>
+      </c>
+      <c r="M6" s="9">
         <v>46</v>
       </c>
-      <c r="H6" s="9">
+      <c r="N6" s="9">
         <v>7.8</v>
       </c>
-      <c r="I6" s="9">
+      <c r="O6" s="9">
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.25">
+    <row r="7" spans="1:17" ht="26.25">
       <c r="A7" s="1">
         <v>2015</v>
       </c>
@@ -743,22 +822,40 @@
         <v>519</v>
       </c>
       <c r="E7" s="1">
+        <v>2924</v>
+      </c>
+      <c r="F7" s="17">
+        <v>597</v>
+      </c>
+      <c r="G7" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="F7" s="8">
+      <c r="H7" s="1">
+        <v>3089</v>
+      </c>
+      <c r="I7" s="17">
+        <v>630</v>
+      </c>
+      <c r="J7" s="8">
         <v>28</v>
       </c>
-      <c r="G7" s="8">
+      <c r="K7" s="1">
+        <v>1714</v>
+      </c>
+      <c r="L7" s="17">
+        <v>480</v>
+      </c>
+      <c r="M7" s="8">
         <v>43</v>
       </c>
-      <c r="H7" s="8">
+      <c r="N7" s="8">
         <v>10.199999999999999</v>
       </c>
-      <c r="I7" s="8">
+      <c r="O7" s="8">
         <v>3.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.25">
+    <row r="8" spans="1:17" ht="26.25">
       <c r="A8" s="1">
         <v>2016</v>
       </c>
@@ -772,22 +869,40 @@
         <v>467</v>
       </c>
       <c r="E8" s="1">
+        <v>4911</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1052</v>
+      </c>
+      <c r="G8" s="1">
         <v>21.7</v>
       </c>
-      <c r="F8" s="1">
+      <c r="H8" s="1">
+        <v>3513</v>
+      </c>
+      <c r="I8" s="1">
+        <v>761</v>
+      </c>
+      <c r="J8" s="1">
         <v>37</v>
       </c>
-      <c r="G8" s="1">
+      <c r="K8" s="1">
+        <v>2853</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1063</v>
+      </c>
+      <c r="M8" s="1">
         <v>45</v>
       </c>
-      <c r="H8" s="1">
+      <c r="N8" s="1">
         <v>13.4</v>
       </c>
-      <c r="I8" s="1">
+      <c r="O8" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.25">
+    <row r="9" spans="1:17" ht="26.25">
       <c r="A9" s="1">
         <v>2017</v>
       </c>
@@ -801,22 +916,40 @@
         <v>440</v>
       </c>
       <c r="E9" s="4">
+        <v>5371</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1220</v>
+      </c>
+      <c r="G9" s="4">
         <v>22.6</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
+        <v>3568</v>
+      </c>
+      <c r="I9" s="4">
+        <v>808</v>
+      </c>
+      <c r="J9" s="4">
         <v>35</v>
       </c>
-      <c r="G9" s="4">
+      <c r="K9" s="4">
+        <v>2207</v>
+      </c>
+      <c r="L9" s="4">
+        <v>773</v>
+      </c>
+      <c r="M9" s="4">
         <v>44</v>
       </c>
-      <c r="H9" s="4">
+      <c r="N9" s="4">
         <v>15.7</v>
       </c>
-      <c r="I9" s="4">
+      <c r="O9" s="4">
         <v>18.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="26.25">
+    <row r="10" spans="1:17" ht="26.25">
       <c r="A10" s="1">
         <v>2018</v>
       </c>
@@ -826,27 +959,46 @@
       <c r="C10" s="2">
         <v>5</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="15">
         <v>467</v>
       </c>
-      <c r="E10" s="1">
-        <v>22.9</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="15">
+        <v>5030</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1079</v>
+      </c>
+      <c r="G10" s="15">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15">
+        <v>3539</v>
+      </c>
+      <c r="I10" s="15">
+        <v>811</v>
+      </c>
+      <c r="J10" s="15">
         <v>37</v>
       </c>
-      <c r="G10" s="1">
+      <c r="K10" s="15">
+        <v>2414</v>
+      </c>
+      <c r="L10" s="15">
+        <v>893</v>
+      </c>
+      <c r="M10" s="1">
         <v>44</v>
       </c>
-      <c r="H10" s="1">
+      <c r="N10" s="1">
         <v>15.9</v>
       </c>
-      <c r="I10" s="1">
+      <c r="O10" s="1">
         <v>20.3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ppt/지영 _감귤 생산량/2018년 감귤류3종출하.xlsx
+++ b/ppt/지영 _감귤 생산량/2018년 감귤류3종출하.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workR\1-project\ppt\지영 _감귤 생산량\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C41FA32-2CD5-4623-8061-6DB2A4AF091D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0ED143-CC6C-446B-94E9-39DC92CC71B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="11520" xr2:uid="{5A4937FA-6FDB-4BFC-9B89-328998EE54CB}"/>
   </bookViews>
@@ -653,346 +653,346 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D3EFE5-F38D-4288-AD0B-15954F8C2659}">
-  <dimension ref="A4:Q10"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="4" spans="1:17" ht="57">
-      <c r="A4" s="14" t="s">
+    <row r="1" spans="1:17" ht="57">
+      <c r="A1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q1" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="26.25">
+      <c r="A2" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="3">
+        <v>672</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>554</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5264</v>
+      </c>
+      <c r="F2" s="1">
+        <v>950</v>
+      </c>
+      <c r="G2" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3982</v>
+      </c>
+      <c r="I2" s="1">
+        <v>779</v>
+      </c>
+      <c r="J2" s="1">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2059</v>
+      </c>
+      <c r="L2" s="1">
+        <v>715</v>
+      </c>
+      <c r="M2" s="1">
+        <v>45</v>
+      </c>
+      <c r="N2" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="26.25">
+      <c r="A3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="11">
+        <v>696</v>
+      </c>
+      <c r="C3" s="10">
+        <v>-9</v>
+      </c>
+      <c r="D3" s="9">
+        <v>573</v>
+      </c>
+      <c r="E3" s="9">
+        <v>3435</v>
+      </c>
+      <c r="F3" s="16">
+        <v>599</v>
+      </c>
+      <c r="G3" s="9">
+        <v>21.6</v>
+      </c>
+      <c r="H3" s="9">
+        <v>2814</v>
+      </c>
+      <c r="I3" s="16">
+        <v>607</v>
+      </c>
+      <c r="J3" s="9">
+        <v>36</v>
+      </c>
+      <c r="K3" s="9">
+        <v>1485</v>
+      </c>
+      <c r="L3" s="16">
+        <v>534</v>
+      </c>
+      <c r="M3" s="9">
+        <v>46</v>
+      </c>
+      <c r="N3" s="9">
+        <v>7.8</v>
+      </c>
+      <c r="O3" s="9">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="26.25">
+      <c r="A4" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="3">
+        <v>635</v>
+      </c>
+      <c r="C4" s="7">
+        <v>-9</v>
+      </c>
+      <c r="D4" s="1">
+        <v>519</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2924</v>
+      </c>
+      <c r="F4" s="17">
+        <v>597</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3089</v>
+      </c>
+      <c r="I4" s="17">
+        <v>630</v>
+      </c>
+      <c r="J4" s="8">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1714</v>
+      </c>
+      <c r="L4" s="17">
+        <v>480</v>
+      </c>
+      <c r="M4" s="8">
+        <v>43</v>
+      </c>
+      <c r="N4" s="8">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="O4" s="8">
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="26.25">
       <c r="A5" s="1">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="B5" s="3">
-        <v>672</v>
+        <v>599</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>-6</v>
       </c>
       <c r="D5" s="1">
-        <v>554</v>
+        <v>467</v>
       </c>
       <c r="E5" s="1">
-        <v>5264</v>
+        <v>4911</v>
       </c>
       <c r="F5" s="1">
-        <v>950</v>
+        <v>1052</v>
       </c>
       <c r="G5" s="1">
-        <v>19.600000000000001</v>
+        <v>21.7</v>
       </c>
       <c r="H5" s="1">
-        <v>3982</v>
+        <v>3513</v>
       </c>
       <c r="I5" s="1">
-        <v>779</v>
+        <v>761</v>
       </c>
       <c r="J5" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1">
-        <v>2059</v>
+        <v>2853</v>
       </c>
       <c r="L5" s="1">
-        <v>715</v>
+        <v>1063</v>
       </c>
       <c r="M5" s="1">
         <v>45</v>
       </c>
       <c r="N5" s="1">
-        <v>7.7</v>
+        <v>13.4</v>
       </c>
       <c r="O5" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="26.25">
       <c r="A6" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B6" s="11">
-        <v>696</v>
-      </c>
-      <c r="C6" s="10">
-        <v>-9</v>
-      </c>
-      <c r="D6" s="9">
-        <v>573</v>
-      </c>
-      <c r="E6" s="9">
-        <v>3435</v>
-      </c>
-      <c r="F6" s="16">
-        <v>599</v>
-      </c>
-      <c r="G6" s="9">
-        <v>21.6</v>
-      </c>
-      <c r="H6" s="9">
-        <v>2814</v>
-      </c>
-      <c r="I6" s="16">
-        <v>607</v>
-      </c>
-      <c r="J6" s="9">
-        <v>36</v>
-      </c>
-      <c r="K6" s="9">
-        <v>1485</v>
-      </c>
-      <c r="L6" s="16">
-        <v>534</v>
-      </c>
-      <c r="M6" s="9">
-        <v>46</v>
-      </c>
-      <c r="N6" s="9">
-        <v>7.8</v>
-      </c>
-      <c r="O6" s="9">
-        <v>2.5</v>
+        <v>2017</v>
+      </c>
+      <c r="B6" s="6">
+        <v>576</v>
+      </c>
+      <c r="C6" s="5">
+        <v>-4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>440</v>
+      </c>
+      <c r="E6" s="4">
+        <v>5371</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1220</v>
+      </c>
+      <c r="G6" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3568</v>
+      </c>
+      <c r="I6" s="4">
+        <v>808</v>
+      </c>
+      <c r="J6" s="4">
+        <v>35</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2207</v>
+      </c>
+      <c r="L6" s="4">
+        <v>773</v>
+      </c>
+      <c r="M6" s="4">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>18.8</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="26.25">
       <c r="A7" s="1">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="B7" s="3">
-        <v>635</v>
-      </c>
-      <c r="C7" s="7">
-        <v>-9</v>
-      </c>
-      <c r="D7" s="1">
-        <v>519</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2924</v>
-      </c>
-      <c r="F7" s="17">
-        <v>597</v>
-      </c>
-      <c r="G7" s="1">
-        <v>20.399999999999999</v>
-      </c>
-      <c r="H7" s="1">
-        <v>3089</v>
-      </c>
-      <c r="I7" s="17">
-        <v>630</v>
-      </c>
-      <c r="J7" s="8">
-        <v>28</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1714</v>
-      </c>
-      <c r="L7" s="17">
-        <v>480</v>
-      </c>
-      <c r="M7" s="8">
-        <v>43</v>
-      </c>
-      <c r="N7" s="8">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="O7" s="8">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="26.25">
-      <c r="A8" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B8" s="3">
-        <v>599</v>
-      </c>
-      <c r="C8" s="7">
-        <v>-6</v>
-      </c>
-      <c r="D8" s="1">
+        <v>607</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5</v>
+      </c>
+      <c r="D7" s="15">
         <v>467</v>
       </c>
-      <c r="E8" s="1">
-        <v>4911</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1052</v>
-      </c>
-      <c r="G8" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3513</v>
-      </c>
-      <c r="I8" s="1">
-        <v>761</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="E7" s="15">
+        <v>5030</v>
+      </c>
+      <c r="F7" s="15">
+        <v>1079</v>
+      </c>
+      <c r="G7" s="15">
+        <v>23</v>
+      </c>
+      <c r="H7" s="15">
+        <v>3539</v>
+      </c>
+      <c r="I7" s="15">
+        <v>811</v>
+      </c>
+      <c r="J7" s="15">
         <v>37</v>
       </c>
-      <c r="K8" s="1">
-        <v>2853</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1063</v>
-      </c>
-      <c r="M8" s="1">
-        <v>45</v>
-      </c>
-      <c r="N8" s="1">
-        <v>13.4</v>
-      </c>
-      <c r="O8" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="26.25">
-      <c r="A9" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="6">
-        <v>576</v>
-      </c>
-      <c r="C9" s="5">
-        <v>-4</v>
-      </c>
-      <c r="D9" s="4">
-        <v>440</v>
-      </c>
-      <c r="E9" s="4">
-        <v>5371</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1220</v>
-      </c>
-      <c r="G9" s="4">
-        <v>22.6</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3568</v>
-      </c>
-      <c r="I9" s="4">
-        <v>808</v>
-      </c>
-      <c r="J9" s="4">
-        <v>35</v>
-      </c>
-      <c r="K9" s="4">
-        <v>2207</v>
-      </c>
-      <c r="L9" s="4">
-        <v>773</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="K7" s="15">
+        <v>2414</v>
+      </c>
+      <c r="L7" s="15">
+        <v>893</v>
+      </c>
+      <c r="M7" s="1">
         <v>44</v>
       </c>
-      <c r="N9" s="4">
-        <v>15.7</v>
-      </c>
-      <c r="O9" s="4">
-        <v>18.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="26.25">
-      <c r="A10" s="1">
-        <v>2018</v>
-      </c>
-      <c r="B10" s="3">
-        <v>607</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="15">
-        <v>467</v>
-      </c>
-      <c r="E10" s="15">
-        <v>5030</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1079</v>
-      </c>
-      <c r="G10" s="15">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15">
-        <v>3539</v>
-      </c>
-      <c r="I10" s="15">
-        <v>811</v>
-      </c>
-      <c r="J10" s="15">
-        <v>37</v>
-      </c>
-      <c r="K10" s="15">
-        <v>2414</v>
-      </c>
-      <c r="L10" s="15">
-        <v>893</v>
-      </c>
-      <c r="M10" s="1">
-        <v>44</v>
-      </c>
-      <c r="N10" s="1">
+      <c r="N7" s="1">
         <v>15.9</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O7" s="1">
         <v>20.3</v>
       </c>
     </row>
